--- a/Code/Results/Cases/Case_2_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9605159777864856</v>
+        <v>0.390635051968502</v>
       </c>
       <c r="C2">
-        <v>0.1330637843432569</v>
+        <v>0.2097675727620683</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05890452222117126</v>
+        <v>0.1381766316326338</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.2327849281157413</v>
+        <v>0.5515911136399261</v>
       </c>
       <c r="H2">
-        <v>0.2580454642332484</v>
+        <v>0.7069331185372363</v>
       </c>
       <c r="I2">
-        <v>0.2824174365911816</v>
+        <v>0.7335909157176328</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.858915791925682</v>
+        <v>0.2662655900770687</v>
       </c>
       <c r="L2">
-        <v>0.1556609503122104</v>
+        <v>0.2052607142353935</v>
       </c>
       <c r="M2">
-        <v>0.2040234356874073</v>
+        <v>0.1256452696574684</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9809646729987804</v>
+        <v>2.490416174936882</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8364380408226282</v>
+        <v>0.3519467378087882</v>
       </c>
       <c r="C3">
-        <v>0.1322163751987731</v>
+        <v>0.2098208785555045</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05851381422901447</v>
+        <v>0.1389951105589731</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.2413651009315814</v>
+        <v>0.5590628944154794</v>
       </c>
       <c r="H3">
-        <v>0.2676175994431595</v>
+        <v>0.7138658593186058</v>
       </c>
       <c r="I3">
-        <v>0.2965682383354018</v>
+        <v>0.7428042633263772</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.755688333040311</v>
+        <v>0.2324442168110181</v>
       </c>
       <c r="L3">
-        <v>0.1419578487370998</v>
+        <v>0.202698743479246</v>
       </c>
       <c r="M3">
-        <v>0.1781308074709571</v>
+        <v>0.1182093900631536</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.018882897937857</v>
+        <v>2.520561902114025</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7602079659441188</v>
+        <v>0.3281787753929564</v>
       </c>
       <c r="C4">
-        <v>0.1317517702055184</v>
+        <v>0.2098878727125708</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05836338829886323</v>
+        <v>0.1395581039834148</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.2473216903660287</v>
+        <v>0.5640075442404715</v>
       </c>
       <c r="H4">
-        <v>0.2739338277599117</v>
+        <v>0.7184011555924705</v>
       </c>
       <c r="I4">
-        <v>0.3058806031985668</v>
+        <v>0.7488211929117128</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6921886135918385</v>
+        <v>0.211589511569187</v>
       </c>
       <c r="L4">
-        <v>0.1336958363923273</v>
+        <v>0.2012236513015893</v>
       </c>
       <c r="M4">
-        <v>0.1622699824420266</v>
+        <v>0.1136731010964169</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.044535644526377</v>
+        <v>2.540404361723894</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7291260360134402</v>
+        <v>0.3184905846082415</v>
       </c>
       <c r="C5">
-        <v>0.1315763212322594</v>
+        <v>0.2099238335314979</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05832402287240335</v>
+        <v>0.1398027523298904</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2499161356789834</v>
+        <v>0.566112248966796</v>
       </c>
       <c r="H5">
-        <v>0.2766155316852483</v>
+        <v>0.7203194254380314</v>
       </c>
       <c r="I5">
-        <v>0.3098282402191455</v>
+        <v>0.7513636592680868</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6662778673421457</v>
+        <v>0.2030694780222859</v>
       </c>
       <c r="L5">
-        <v>0.1303651564941433</v>
+        <v>0.2006472604317864</v>
       </c>
       <c r="M5">
-        <v>0.1558142527751727</v>
+        <v>0.1118320662169445</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.055567383349896</v>
+        <v>2.54882550974488</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7239636749915519</v>
+        <v>0.3168817361411698</v>
       </c>
       <c r="C6">
-        <v>0.1315480229358954</v>
+        <v>0.2099303291511276</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05831879494653869</v>
+        <v>0.13984429621887</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.2503568618968401</v>
+        <v>0.566467151339257</v>
       </c>
       <c r="H6">
-        <v>0.2770672633932314</v>
+        <v>0.7206421880768588</v>
       </c>
       <c r="I6">
-        <v>0.3104928533741056</v>
+        <v>0.7517913015550288</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6619732222672354</v>
+        <v>0.2016534482787335</v>
       </c>
       <c r="L6">
-        <v>0.1298142265578193</v>
+        <v>0.2005530468005361</v>
       </c>
       <c r="M6">
-        <v>0.1547426997826236</v>
+        <v>0.1115268236941986</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.057433590410625</v>
+        <v>2.550244080041786</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7597888629906038</v>
+        <v>0.3280481263908825</v>
       </c>
       <c r="C7">
-        <v>0.1317493479948126</v>
+        <v>0.2098883225695332</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05836276932176787</v>
+        <v>0.1395613417222474</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2473560111934567</v>
+        <v>0.5640355658016212</v>
       </c>
       <c r="H7">
-        <v>0.2739695610487622</v>
+        <v>0.7184267421491768</v>
       </c>
       <c r="I7">
-        <v>0.3059332291018055</v>
+        <v>0.7488551149685421</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6918393160077159</v>
+        <v>0.2114746939405592</v>
       </c>
       <c r="L7">
-        <v>0.1336507738620298</v>
+        <v>0.2012157776827266</v>
       </c>
       <c r="M7">
-        <v>0.1621828892882</v>
+        <v>0.1136482415237268</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.044682105398408</v>
+        <v>2.540516575085285</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9177395972221234</v>
+        <v>0.3772985013144989</v>
       </c>
       <c r="C8">
-        <v>0.1327599558253496</v>
+        <v>0.209778867294709</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05875089085342822</v>
+        <v>0.1384463128200277</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.2355968286329251</v>
+        <v>0.5540932776346565</v>
       </c>
       <c r="H8">
-        <v>0.2612532638808389</v>
+        <v>0.7092657432005218</v>
       </c>
       <c r="I8">
-        <v>0.2871646903139613</v>
+        <v>0.7366929940569875</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8233445429366668</v>
+        <v>0.2546226562072036</v>
       </c>
       <c r="L8">
-        <v>0.1509033910750475</v>
+        <v>0.2043570639109049</v>
       </c>
       <c r="M8">
-        <v>0.1950868416319267</v>
+        <v>0.1230753723292146</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9935357004563272</v>
+        <v>2.500533804035285</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.22742414889413</v>
+        <v>0.4737449735126802</v>
       </c>
       <c r="C9">
-        <v>0.1351901877057244</v>
+        <v>0.2098342360226653</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06024840998485992</v>
+        <v>0.1367382886991191</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2182798377759099</v>
+        <v>0.5374302651227723</v>
       </c>
       <c r="H9">
-        <v>0.2399194848818453</v>
+        <v>0.6935088678420556</v>
       </c>
       <c r="I9">
-        <v>0.2554980634530644</v>
+        <v>0.7156976035567801</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.080523034128049</v>
+        <v>0.3385122572830994</v>
       </c>
       <c r="L9">
-        <v>0.1860358453718831</v>
+        <v>0.2112911868116285</v>
       </c>
       <c r="M9">
-        <v>0.2599923294142847</v>
+        <v>0.1417891887627363</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9128976691255701</v>
+        <v>2.432701736300288</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455389759375919</v>
+        <v>0.5444910930362425</v>
       </c>
       <c r="C10">
-        <v>0.13725900221079</v>
+        <v>0.2100371347490082</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06183602935637111</v>
+        <v>0.1357737773411625</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2094649964920876</v>
+        <v>0.5269175336807592</v>
       </c>
       <c r="H10">
-        <v>0.2266158306954082</v>
+        <v>0.6832746411502981</v>
       </c>
       <c r="I10">
-        <v>0.235637998542682</v>
+        <v>0.7020105592390191</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.269403932082895</v>
+        <v>0.3996794748327375</v>
       </c>
       <c r="L10">
-        <v>0.2127824766590862</v>
+        <v>0.2168539693786897</v>
       </c>
       <c r="M10">
-        <v>0.3080392991298737</v>
+        <v>0.1556703787710774</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.866865934456257</v>
+        <v>2.389308806046401</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.559306738662315</v>
+        <v>0.5766444617557624</v>
       </c>
       <c r="C11">
-        <v>0.1382640944878375</v>
+        <v>0.2101641686234714</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06267300325967362</v>
+        <v>0.1353977639388599</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2063982454612585</v>
+        <v>0.5225110149544818</v>
       </c>
       <c r="H11">
-        <v>0.2211188603274294</v>
+        <v>0.6789095392509523</v>
       </c>
       <c r="I11">
-        <v>0.2274059356384317</v>
+        <v>0.6961610023871287</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.355402882728157</v>
+        <v>0.4273997026650136</v>
       </c>
       <c r="L11">
-        <v>0.2251865050066471</v>
+        <v>0.2194855854569653</v>
       </c>
       <c r="M11">
-        <v>0.33000605126594</v>
+        <v>0.1620127189551823</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8490799505862441</v>
+        <v>2.370966714064338</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.598697881156369</v>
+        <v>0.5888151961987944</v>
       </c>
       <c r="C12">
-        <v>0.1386541074724548</v>
+        <v>0.2102172253885541</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06300721953837574</v>
+        <v>0.1352643764731063</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2053809613740398</v>
+        <v>0.5208964599873624</v>
       </c>
       <c r="H12">
-        <v>0.2191207061523315</v>
+        <v>0.6772983104987418</v>
       </c>
       <c r="I12">
-        <v>0.224409670602526</v>
+        <v>0.69400008459675</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.387986765085515</v>
+        <v>0.4378809750062942</v>
       </c>
       <c r="L12">
-        <v>0.2299205273754126</v>
+        <v>0.2204965676772588</v>
       </c>
       <c r="M12">
-        <v>0.3383427109941479</v>
+        <v>0.1644182457820591</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8428237678239725</v>
+        <v>2.364221997501261</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.590212359339574</v>
+        <v>0.5861942483632561</v>
       </c>
       <c r="C13">
-        <v>0.1385696894017983</v>
+        <v>0.2102055791126674</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06293445920144514</v>
+        <v>0.1352927039012037</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2055935071460127</v>
+        <v>0.5212417762832189</v>
       </c>
       <c r="H13">
-        <v>0.219547273831914</v>
+        <v>0.6776434615346432</v>
       </c>
       <c r="I13">
-        <v>0.2250494932791867</v>
+        <v>0.6944630670252518</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.380968327832363</v>
+        <v>0.4356243577894645</v>
       </c>
       <c r="L13">
-        <v>0.2288992836683121</v>
+        <v>0.2202781934767017</v>
       </c>
       <c r="M13">
-        <v>0.3365464051987672</v>
+        <v>0.1639000052658233</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8441494254440158</v>
+        <v>2.3656656507261</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.562546614111511</v>
+        <v>0.5776458612793363</v>
       </c>
       <c r="C14">
-        <v>0.1382959913381612</v>
+        <v>0.2101684346367847</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0627001487168517</v>
+        <v>0.135386609813736</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2063116165330854</v>
+        <v>0.522377099987402</v>
       </c>
       <c r="H14">
-        <v>0.2209527773983808</v>
+        <v>0.6787761461350712</v>
       </c>
       <c r="I14">
-        <v>0.2271569718135584</v>
+        <v>0.6959821364460286</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.358083176723824</v>
+        <v>0.4282623232649314</v>
       </c>
       <c r="L14">
-        <v>0.2255752198478831</v>
+        <v>0.2195684705552878</v>
       </c>
       <c r="M14">
-        <v>0.3306915309657583</v>
+        <v>0.1622105474786508</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.848555500328473</v>
+        <v>2.370407792740735</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.545606045180875</v>
+        <v>0.5724090455570945</v>
       </c>
       <c r="C15">
-        <v>0.1381295747356717</v>
+        <v>0.210146326174943</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06255889968942263</v>
+        <v>0.135445301381834</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2067704934144885</v>
+        <v>0.5230795655287679</v>
       </c>
       <c r="H15">
-        <v>0.221824665158401</v>
+        <v>0.6794753830476381</v>
       </c>
       <c r="I15">
-        <v>0.228463799218769</v>
+        <v>0.6969196666740736</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.344067914617455</v>
+        <v>0.4237507901253821</v>
       </c>
       <c r="L15">
-        <v>0.2235440251222798</v>
+        <v>0.2191356234767028</v>
       </c>
       <c r="M15">
-        <v>0.3271077157240398</v>
+        <v>0.1611761984029698</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8513175054708739</v>
+        <v>2.373338674388648</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.448603626250048</v>
+        <v>0.542389132992497</v>
       </c>
       <c r="C16">
-        <v>0.1371946217744622</v>
+        <v>0.2100295280509172</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06178370534053457</v>
+        <v>0.1357996114316737</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2096851023316972</v>
+        <v>0.527213076919125</v>
       </c>
       <c r="H16">
-        <v>0.2269865429689943</v>
+        <v>0.6835657535993036</v>
       </c>
       <c r="I16">
-        <v>0.2361926058151287</v>
+        <v>0.7024004232297685</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.263785816719604</v>
+        <v>0.3978657215644716</v>
       </c>
       <c r="L16">
-        <v>0.2119768482750573</v>
+        <v>0.2166840134640893</v>
       </c>
       <c r="M16">
-        <v>0.3066061440977919</v>
+        <v>0.1552564355180905</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.868093900012056</v>
+        <v>2.390535633295528</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.389157029606565</v>
+        <v>0.5239647749233711</v>
       </c>
       <c r="C17">
-        <v>0.1366375869413332</v>
+        <v>0.2099667417986382</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06133807701070637</v>
+        <v>0.1360330244323684</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2117205192300702</v>
+        <v>0.5298451416973862</v>
       </c>
       <c r="H17">
-        <v>0.2302978380761189</v>
+        <v>0.6861494438071176</v>
       </c>
       <c r="I17">
-        <v>0.2411434170634372</v>
+        <v>0.7058591887431778</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.21455966253194</v>
+        <v>0.3819586876268772</v>
       </c>
       <c r="L17">
-        <v>0.2049433841464747</v>
+        <v>0.2152058557434628</v>
       </c>
       <c r="M17">
-        <v>0.2940589938736053</v>
+        <v>0.1516318339965039</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8792111602779187</v>
+        <v>2.401443409452767</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.354984498655909</v>
+        <v>0.5133648535566522</v>
       </c>
       <c r="C18">
-        <v>0.1363232039334221</v>
+        <v>0.2099339007039163</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06109251657890802</v>
+        <v>0.1361731848642282</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2129794822072313</v>
+        <v>0.5313944018499939</v>
       </c>
       <c r="H18">
-        <v>0.2322544107604614</v>
+        <v>0.6876628591788645</v>
       </c>
       <c r="I18">
-        <v>0.2440661602887531</v>
+        <v>0.7078840401274924</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.186252792616841</v>
+        <v>0.372799534951298</v>
       </c>
       <c r="L18">
-        <v>0.2009200365338728</v>
+        <v>0.2143651778078919</v>
       </c>
       <c r="M18">
-        <v>0.2868523932050024</v>
+        <v>0.1495496778246945</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8859007869726554</v>
+        <v>2.407848815727732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.343417358870369</v>
+        <v>0.5097754605711486</v>
       </c>
       <c r="C19">
-        <v>0.136217785200806</v>
+        <v>0.209923344538943</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06101119806048416</v>
+        <v>0.1362216560693774</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.213420653184329</v>
+        <v>0.5319250269818099</v>
       </c>
       <c r="H19">
-        <v>0.2329256969411517</v>
+        <v>0.6881799731722325</v>
       </c>
       <c r="I19">
-        <v>0.2450684935821812</v>
+        <v>0.7085757102676649</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.176669520392409</v>
+        <v>0.3696967323904516</v>
       </c>
       <c r="L19">
-        <v>0.1995615149070318</v>
+        <v>0.2140821763475032</v>
       </c>
       <c r="M19">
-        <v>0.2844140378142086</v>
+        <v>0.1488451503395183</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8882157411646716</v>
+        <v>2.41004016663868</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.395483130144328</v>
+        <v>0.5259263665423362</v>
       </c>
       <c r="C20">
-        <v>0.1366962609253974</v>
+        <v>0.209973087184828</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0613843965347467</v>
+        <v>0.1360075659836237</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2114946532331174</v>
+        <v>0.5295612931985261</v>
       </c>
       <c r="H20">
-        <v>0.229939937261264</v>
+        <v>0.6858715756970852</v>
       </c>
       <c r="I20">
-        <v>0.2406085751912013</v>
+        <v>0.7054873271286155</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.219799126876069</v>
+        <v>0.3836530425872695</v>
       </c>
       <c r="L20">
-        <v>0.2056897996358344</v>
+        <v>0.2153622235871637</v>
       </c>
       <c r="M20">
-        <v>0.2953935872653304</v>
+        <v>0.1520174091838697</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8779969696697663</v>
+        <v>2.400268643478299</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.570671550778883</v>
+        <v>0.5801568733328395</v>
       </c>
       <c r="C21">
-        <v>0.1383761260891916</v>
+        <v>0.2101792108217353</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06276849628340919</v>
+        <v>0.1353587832744818</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2060967122006545</v>
+        <v>0.5220421591988469</v>
       </c>
       <c r="H21">
-        <v>0.2205376527188108</v>
+        <v>0.6784423166432916</v>
       </c>
       <c r="I21">
-        <v>0.2265346227114158</v>
+        <v>0.6955344783869037</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.364804554923495</v>
+        <v>0.430425164764614</v>
       </c>
       <c r="L21">
-        <v>0.2265505535475256</v>
+        <v>0.2197765420193747</v>
       </c>
       <c r="M21">
-        <v>0.3324107311726721</v>
+        <v>0.1627066798212908</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8472481200340667</v>
+        <v>2.369009454103619</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.685405430690082</v>
+        <v>0.6155698383437027</v>
       </c>
       <c r="C22">
-        <v>0.1395289491015461</v>
+        <v>0.210342767677254</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06377414839731799</v>
+        <v>0.1349872185254419</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2034125969920666</v>
+        <v>0.5174433235561224</v>
       </c>
       <c r="H22">
-        <v>0.2148808418966937</v>
+        <v>0.6738301475103867</v>
       </c>
       <c r="I22">
-        <v>0.2180448371633066</v>
+        <v>0.6893455361009018</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.459682210768904</v>
+        <v>0.4609011839835659</v>
       </c>
       <c r="L22">
-        <v>0.2404006935255296</v>
+        <v>0.2227457172427876</v>
       </c>
       <c r="M22">
-        <v>0.3567116884373007</v>
+        <v>0.1697149267556384</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8299567046965137</v>
+        <v>2.34975158652469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.624144794106797</v>
+        <v>0.5966722705894654</v>
       </c>
       <c r="C23">
-        <v>0.138908567182277</v>
+        <v>0.2102528492642008</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06322790082104746</v>
+        <v>0.1351807376458574</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2047650549201876</v>
+        <v>0.5198689335455597</v>
       </c>
       <c r="H23">
-        <v>0.2178540702865135</v>
+        <v>0.6762694995130403</v>
       </c>
       <c r="I23">
-        <v>0.2225092301186393</v>
+        <v>0.6926197914030467</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.409031868360671</v>
+        <v>0.4446442224812017</v>
       </c>
       <c r="L23">
-        <v>0.2329878323771624</v>
+        <v>0.2211533409735722</v>
       </c>
       <c r="M23">
-        <v>0.3437310427850377</v>
+        <v>0.1659725176528255</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8389200419966159</v>
+        <v>2.359922629446146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.392623087980979</v>
+        <v>0.5250395543093589</v>
       </c>
       <c r="C24">
-        <v>0.1366697161684129</v>
+        <v>0.2099702082916153</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06136342240312587</v>
+        <v>0.1360190571566591</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2115964913670609</v>
+        <v>0.5296895088141369</v>
       </c>
       <c r="H24">
-        <v>0.2301015798292028</v>
+        <v>0.6859971125952882</v>
       </c>
       <c r="I24">
-        <v>0.2408501394829905</v>
+        <v>0.7056553325041115</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.217430384563727</v>
+        <v>0.3828870682265517</v>
       </c>
       <c r="L24">
-        <v>0.2053522822229468</v>
+        <v>0.2152915012253516</v>
       </c>
       <c r="M24">
-        <v>0.2947901962172921</v>
+        <v>0.1518430854101922</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8785449784310089</v>
+        <v>2.400799336598197</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.143605148357665</v>
+        <v>0.4476712205255637</v>
       </c>
       <c r="C25">
-        <v>0.1344837556838954</v>
+        <v>0.2097905987163031</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05976058938022177</v>
+        <v>0.1371492634739511</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2223089846179107</v>
+        <v>0.5416344634913415</v>
       </c>
       <c r="H25">
-        <v>0.2452877265674474</v>
+        <v>0.6975355310398186</v>
       </c>
       <c r="I25">
-        <v>0.2634872716315684</v>
+        <v>0.7210720174101919</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.010988959191508</v>
+        <v>0.3158979842644101</v>
       </c>
       <c r="L25">
-        <v>0.1763781635805799</v>
+        <v>0.2093328259504048</v>
       </c>
       <c r="M25">
-        <v>0.2423800705393688</v>
+        <v>0.1367029384906076</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.93248473429108</v>
+        <v>2.449920386329026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.390635051968502</v>
+        <v>0.960515977786514</v>
       </c>
       <c r="C2">
-        <v>0.2097675727620683</v>
+        <v>0.1330637843430509</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1381766316326338</v>
+        <v>0.05890452222113396</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5515911136399261</v>
+        <v>0.2327849281157981</v>
       </c>
       <c r="H2">
-        <v>0.7069331185372363</v>
+        <v>0.2580454642331276</v>
       </c>
       <c r="I2">
-        <v>0.7335909157176328</v>
+        <v>0.2824174365911727</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2662655900770687</v>
+        <v>0.8589157919255967</v>
       </c>
       <c r="L2">
-        <v>0.2052607142353935</v>
+        <v>0.1556609503122104</v>
       </c>
       <c r="M2">
-        <v>0.1256452696574684</v>
+        <v>0.2040234356874038</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.490416174936882</v>
+        <v>0.9809646729986525</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3519467378087882</v>
+        <v>0.8364380408225429</v>
       </c>
       <c r="C3">
-        <v>0.2098208785555045</v>
+        <v>0.1322163751987233</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1389951105589731</v>
+        <v>0.05851381422903934</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.5590628944154794</v>
+        <v>0.2413651009316204</v>
       </c>
       <c r="H3">
-        <v>0.7138658593186058</v>
+        <v>0.2676175994431595</v>
       </c>
       <c r="I3">
-        <v>0.7428042633263772</v>
+        <v>0.2965682383353947</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2324442168110181</v>
+        <v>0.7556883330402826</v>
       </c>
       <c r="L3">
-        <v>0.202698743479246</v>
+        <v>0.1419578487370998</v>
       </c>
       <c r="M3">
-        <v>0.1182093900631536</v>
+        <v>0.1781308074709571</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.520561902114025</v>
+        <v>1.018882897937836</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3281787753929564</v>
+        <v>0.7602079659441472</v>
       </c>
       <c r="C4">
-        <v>0.2098878727125708</v>
+        <v>0.1317517702055113</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1395581039834148</v>
+        <v>0.058363388298865</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5640075442404715</v>
+        <v>0.2473216903661388</v>
       </c>
       <c r="H4">
-        <v>0.7184011555924705</v>
+        <v>0.2739338277599082</v>
       </c>
       <c r="I4">
-        <v>0.7488211929117128</v>
+        <v>0.3058806031985579</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.211589511569187</v>
+        <v>0.6921886135917248</v>
       </c>
       <c r="L4">
-        <v>0.2012236513015893</v>
+        <v>0.1336958363924907</v>
       </c>
       <c r="M4">
-        <v>0.1136731010964169</v>
+        <v>0.1622699824420479</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.540404361723894</v>
+        <v>1.044535644526349</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3184905846082415</v>
+        <v>0.7291260360134686</v>
       </c>
       <c r="C5">
-        <v>0.2099238335314979</v>
+        <v>0.131576321232302</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1398027523298904</v>
+        <v>0.05832402287243177</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.566112248966796</v>
+        <v>0.2499161356790367</v>
       </c>
       <c r="H5">
-        <v>0.7203194254380314</v>
+        <v>0.2766155316851346</v>
       </c>
       <c r="I5">
-        <v>0.7513636592680868</v>
+        <v>0.3098282402191277</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2030694780222859</v>
+        <v>0.6662778673420036</v>
       </c>
       <c r="L5">
-        <v>0.2006472604317864</v>
+        <v>0.1303651564941575</v>
       </c>
       <c r="M5">
-        <v>0.1118320662169445</v>
+        <v>0.1558142527751691</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.54882550974488</v>
+        <v>1.055567383349882</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3168817361411698</v>
+        <v>0.7239636749914098</v>
       </c>
       <c r="C6">
-        <v>0.2099303291511276</v>
+        <v>0.1315480229358883</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.13984429621887</v>
+        <v>0.05831879494653691</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.566467151339257</v>
+        <v>0.250356861896833</v>
       </c>
       <c r="H6">
-        <v>0.7206421880768588</v>
+        <v>0.2770672633932278</v>
       </c>
       <c r="I6">
-        <v>0.7517913015550288</v>
+        <v>0.3104928533740949</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2016534482787335</v>
+        <v>0.6619732222672781</v>
       </c>
       <c r="L6">
-        <v>0.2005530468005361</v>
+        <v>0.1298142265578122</v>
       </c>
       <c r="M6">
-        <v>0.1115268236941986</v>
+        <v>0.1547426997826093</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.550244080041786</v>
+        <v>1.057433590410668</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3280481263908825</v>
+        <v>0.7597888629904901</v>
       </c>
       <c r="C7">
-        <v>0.2098883225695332</v>
+        <v>0.1317493479945711</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1395613417222474</v>
+        <v>0.05836276932173412</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5640355658016212</v>
+        <v>0.2473560111934461</v>
       </c>
       <c r="H7">
-        <v>0.7184267421491768</v>
+        <v>0.2739695610487622</v>
       </c>
       <c r="I7">
-        <v>0.7488551149685421</v>
+        <v>0.3059332291017824</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2114746939405592</v>
+        <v>0.6918393160077301</v>
       </c>
       <c r="L7">
-        <v>0.2012157776827266</v>
+        <v>0.1336507738619943</v>
       </c>
       <c r="M7">
-        <v>0.1136482415237268</v>
+        <v>0.1621828892881929</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.540516575085285</v>
+        <v>1.044682105398451</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3772985013144989</v>
+        <v>0.9177395972222655</v>
       </c>
       <c r="C8">
-        <v>0.209778867294709</v>
+        <v>0.1327599558256338</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1384463128200277</v>
+        <v>0.0587508908534069</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5540932776346565</v>
+        <v>0.2355968286328647</v>
       </c>
       <c r="H8">
-        <v>0.7092657432005218</v>
+        <v>0.2612532638808354</v>
       </c>
       <c r="I8">
-        <v>0.7366929940569875</v>
+        <v>0.2871646903139524</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2546226562072036</v>
+        <v>0.8233445429365247</v>
       </c>
       <c r="L8">
-        <v>0.2043570639109049</v>
+        <v>0.1509033910749977</v>
       </c>
       <c r="M8">
-        <v>0.1230753723292146</v>
+        <v>0.1950868416319267</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.500533804035285</v>
+        <v>0.993535700456313</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4737449735126802</v>
+        <v>1.22742414889413</v>
       </c>
       <c r="C9">
-        <v>0.2098342360226653</v>
+        <v>0.1351901877055468</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1367382886991191</v>
+        <v>0.06024840998485992</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.5374302651227723</v>
+        <v>0.2182798377759099</v>
       </c>
       <c r="H9">
-        <v>0.6935088678420556</v>
+        <v>0.239919484881959</v>
       </c>
       <c r="I9">
-        <v>0.7156976035567801</v>
+        <v>0.2554980634530608</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3385122572830994</v>
+        <v>1.080523034127964</v>
       </c>
       <c r="L9">
-        <v>0.2112911868116285</v>
+        <v>0.1860358453719542</v>
       </c>
       <c r="M9">
-        <v>0.1417891887627363</v>
+        <v>0.259992329414299</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.432701736300288</v>
+        <v>0.9128976691255559</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5444910930362425</v>
+        <v>1.455389759375947</v>
       </c>
       <c r="C10">
-        <v>0.2100371347490082</v>
+        <v>0.1372590022105058</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1357737773411625</v>
+        <v>0.06183602935636578</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.5269175336807592</v>
+        <v>0.2094649964920947</v>
       </c>
       <c r="H10">
-        <v>0.6832746411502981</v>
+        <v>0.2266158306954082</v>
       </c>
       <c r="I10">
-        <v>0.7020105592390191</v>
+        <v>0.2356379985426873</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3996794748327375</v>
+        <v>1.269403932082895</v>
       </c>
       <c r="L10">
-        <v>0.2168539693786897</v>
+        <v>0.2127824766590578</v>
       </c>
       <c r="M10">
-        <v>0.1556703787710774</v>
+        <v>0.3080392991298808</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.389308806046401</v>
+        <v>0.8668659344562712</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5766444617557624</v>
+        <v>1.559306738662315</v>
       </c>
       <c r="C11">
-        <v>0.2101641686234714</v>
+        <v>0.1382640944883278</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1353977639388599</v>
+        <v>0.0626730032596825</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5225110149544818</v>
+        <v>0.2063982454612443</v>
       </c>
       <c r="H11">
-        <v>0.6789095392509523</v>
+        <v>0.2211188603274152</v>
       </c>
       <c r="I11">
-        <v>0.6961610023871287</v>
+        <v>0.2274059356384317</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4273997026650136</v>
+        <v>1.355402882728072</v>
       </c>
       <c r="L11">
-        <v>0.2194855854569653</v>
+        <v>0.2251865050066613</v>
       </c>
       <c r="M11">
-        <v>0.1620127189551823</v>
+        <v>0.3300060512659329</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.370966714064338</v>
+        <v>0.8490799505861872</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5888151961987944</v>
+        <v>1.598697881156141</v>
       </c>
       <c r="C12">
-        <v>0.2102172253885541</v>
+        <v>0.1386541074724974</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1352643764731063</v>
+        <v>0.06300721953841659</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.5208964599873624</v>
+        <v>0.2053809613739617</v>
       </c>
       <c r="H12">
-        <v>0.6772983104987418</v>
+        <v>0.2191207061522107</v>
       </c>
       <c r="I12">
-        <v>0.69400008459675</v>
+        <v>0.2244096706025349</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4378809750062942</v>
+        <v>1.387986765085429</v>
       </c>
       <c r="L12">
-        <v>0.2204965676772588</v>
+        <v>0.2299205273754268</v>
       </c>
       <c r="M12">
-        <v>0.1644182457820591</v>
+        <v>0.3383427109941692</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.364221997501261</v>
+        <v>0.8428237678239014</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5861942483632561</v>
+        <v>1.590212359339461</v>
       </c>
       <c r="C13">
-        <v>0.2102055791126674</v>
+        <v>0.1385696894020825</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1352927039012037</v>
+        <v>0.06293445920143803</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.5212417762832189</v>
+        <v>0.2055935071459487</v>
       </c>
       <c r="H13">
-        <v>0.6776434615346432</v>
+        <v>0.2195472738320277</v>
       </c>
       <c r="I13">
-        <v>0.6944630670252518</v>
+        <v>0.2250494932791636</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4356243577894645</v>
+        <v>1.380968327832221</v>
       </c>
       <c r="L13">
-        <v>0.2202781934767017</v>
+        <v>0.2288992836682979</v>
       </c>
       <c r="M13">
-        <v>0.1639000052658233</v>
+        <v>0.3365464051987672</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.3656656507261</v>
+        <v>0.8441494254440158</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5776458612793363</v>
+        <v>1.562546614111625</v>
       </c>
       <c r="C14">
-        <v>0.2101684346367847</v>
+        <v>0.1382959913383957</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.135386609813736</v>
+        <v>0.06270014871684992</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.522377099987402</v>
+        <v>0.2063116165331493</v>
       </c>
       <c r="H14">
-        <v>0.6787761461350712</v>
+        <v>0.2209527773983808</v>
       </c>
       <c r="I14">
-        <v>0.6959821364460286</v>
+        <v>0.227156971813562</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4282623232649314</v>
+        <v>1.358083176723909</v>
       </c>
       <c r="L14">
-        <v>0.2195684705552878</v>
+        <v>0.2255752198478831</v>
       </c>
       <c r="M14">
-        <v>0.1622105474786508</v>
+        <v>0.3306915309657796</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.370407792740735</v>
+        <v>0.8485555003284588</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5724090455570945</v>
+        <v>1.54560604518079</v>
       </c>
       <c r="C15">
-        <v>0.210146326174943</v>
+        <v>0.1381295747357356</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.135445301381834</v>
+        <v>0.06255889968943151</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.5230795655287679</v>
+        <v>0.2067704934144885</v>
       </c>
       <c r="H15">
-        <v>0.6794753830476381</v>
+        <v>0.2218246651582874</v>
       </c>
       <c r="I15">
-        <v>0.6969196666740736</v>
+        <v>0.2284637992187601</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4237507901253821</v>
+        <v>1.344067914617369</v>
       </c>
       <c r="L15">
-        <v>0.2191356234767028</v>
+        <v>0.2235440251222229</v>
       </c>
       <c r="M15">
-        <v>0.1611761984029698</v>
+        <v>0.3271077157240398</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.373338674388648</v>
+        <v>0.8513175054708597</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.542389132992497</v>
+        <v>1.448603626250048</v>
       </c>
       <c r="C16">
-        <v>0.2100295280509172</v>
+        <v>0.1371946217744622</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1357996114316737</v>
+        <v>0.06178370534053812</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.527213076919125</v>
+        <v>0.2096851023316972</v>
       </c>
       <c r="H16">
-        <v>0.6835657535993036</v>
+        <v>0.2269865429690014</v>
       </c>
       <c r="I16">
-        <v>0.7024004232297685</v>
+        <v>0.2361926058151287</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3978657215644716</v>
+        <v>1.263785816719462</v>
       </c>
       <c r="L16">
-        <v>0.2166840134640893</v>
+        <v>0.2119768482750004</v>
       </c>
       <c r="M16">
-        <v>0.1552564355180905</v>
+        <v>0.3066061440978061</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.390535633295528</v>
+        <v>0.8680939000120702</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5239647749233711</v>
+        <v>1.38915702960648</v>
       </c>
       <c r="C17">
-        <v>0.2099667417986382</v>
+        <v>0.1366375869413758</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1360330244323684</v>
+        <v>0.0613380770107117</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.5298451416973862</v>
+        <v>0.2117205192300062</v>
       </c>
       <c r="H17">
-        <v>0.6861494438071176</v>
+        <v>0.2302978380761189</v>
       </c>
       <c r="I17">
-        <v>0.7058591887431778</v>
+        <v>0.2411434170634283</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3819586876268772</v>
+        <v>1.214559662531911</v>
       </c>
       <c r="L17">
-        <v>0.2152058557434628</v>
+        <v>0.2049433841465458</v>
       </c>
       <c r="M17">
-        <v>0.1516318339965039</v>
+        <v>0.2940589938736196</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.401443409452767</v>
+        <v>0.8792111602778903</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5133648535566522</v>
+        <v>1.354984498655938</v>
       </c>
       <c r="C18">
-        <v>0.2099339007039163</v>
+        <v>0.136323203933415</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1361731848642282</v>
+        <v>0.06109251657892045</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.5313944018499939</v>
+        <v>0.2129794822072171</v>
       </c>
       <c r="H18">
-        <v>0.6876628591788645</v>
+        <v>0.2322544107604614</v>
       </c>
       <c r="I18">
-        <v>0.7078840401274924</v>
+        <v>0.2440661602887513</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.372799534951298</v>
+        <v>1.186252792616841</v>
       </c>
       <c r="L18">
-        <v>0.2143651778078919</v>
+        <v>0.2009200365338586</v>
       </c>
       <c r="M18">
-        <v>0.1495496778246945</v>
+        <v>0.2868523932050095</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.407848815727732</v>
+        <v>0.8859007869726554</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5097754605711486</v>
+        <v>1.343417358870397</v>
       </c>
       <c r="C19">
-        <v>0.209923344538943</v>
+        <v>0.1362177852008131</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1362216560693774</v>
+        <v>0.06101119806048594</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.5319250269818099</v>
+        <v>0.2134206531842864</v>
       </c>
       <c r="H19">
-        <v>0.6881799731722325</v>
+        <v>0.2329256969412654</v>
       </c>
       <c r="I19">
-        <v>0.7085757102676649</v>
+        <v>0.2450684935821723</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3696967323904516</v>
+        <v>1.176669520392551</v>
       </c>
       <c r="L19">
-        <v>0.2140821763475032</v>
+        <v>0.1995615149069607</v>
       </c>
       <c r="M19">
-        <v>0.1488451503395183</v>
+        <v>0.2844140378141944</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.41004016663868</v>
+        <v>0.8882157411646432</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5259263665423362</v>
+        <v>1.395483130144214</v>
       </c>
       <c r="C20">
-        <v>0.209973087184828</v>
+        <v>0.1366962609252127</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1360075659836237</v>
+        <v>0.06138439653470584</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.5295612931985261</v>
+        <v>0.2114946532331814</v>
       </c>
       <c r="H20">
-        <v>0.6858715756970852</v>
+        <v>0.2299399372613777</v>
       </c>
       <c r="I20">
-        <v>0.7054873271286155</v>
+        <v>0.240608575191203</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3836530425872695</v>
+        <v>1.219799126876069</v>
       </c>
       <c r="L20">
-        <v>0.2153622235871637</v>
+        <v>0.2056897996358344</v>
       </c>
       <c r="M20">
-        <v>0.1520174091838697</v>
+        <v>0.2953935872653375</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.400268643478299</v>
+        <v>0.8779969696697663</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5801568733328395</v>
+        <v>1.570671550779167</v>
       </c>
       <c r="C21">
-        <v>0.2101792108217353</v>
+        <v>0.1383761260894403</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1353587832744818</v>
+        <v>0.06276849628337189</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.5220421591988469</v>
+        <v>0.206096712200555</v>
       </c>
       <c r="H21">
-        <v>0.6784423166432916</v>
+        <v>0.2205376527188108</v>
       </c>
       <c r="I21">
-        <v>0.6955344783869037</v>
+        <v>0.2265346227114158</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.430425164764614</v>
+        <v>1.364804554923325</v>
       </c>
       <c r="L21">
-        <v>0.2197765420193747</v>
+        <v>0.2265505535474261</v>
       </c>
       <c r="M21">
-        <v>0.1627066798212908</v>
+        <v>0.3324107311726792</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.369009454103619</v>
+        <v>0.8472481200339956</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6155698383437027</v>
+        <v>1.685405430689883</v>
       </c>
       <c r="C22">
-        <v>0.210342767677254</v>
+        <v>0.1395289491018943</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1349872185254419</v>
+        <v>0.06377414839731443</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.5174433235561224</v>
+        <v>0.2034125969920666</v>
       </c>
       <c r="H22">
-        <v>0.6738301475103867</v>
+        <v>0.2148808418968073</v>
       </c>
       <c r="I22">
-        <v>0.6893455361009018</v>
+        <v>0.218044837163287</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4609011839835659</v>
+        <v>1.45968221076896</v>
       </c>
       <c r="L22">
-        <v>0.2227457172427876</v>
+        <v>0.2404006935255154</v>
       </c>
       <c r="M22">
-        <v>0.1697149267556384</v>
+        <v>0.3567116884373149</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.34975158652469</v>
+        <v>0.8299567046964427</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5966722705894654</v>
+        <v>1.624144794106655</v>
       </c>
       <c r="C23">
-        <v>0.2102528492642008</v>
+        <v>0.1389085671824404</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1351807376458574</v>
+        <v>0.06322790082106877</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.5198689335455597</v>
+        <v>0.2047650549201521</v>
       </c>
       <c r="H23">
-        <v>0.6762694995130403</v>
+        <v>0.2178540702865135</v>
       </c>
       <c r="I23">
-        <v>0.6926197914030467</v>
+        <v>0.2225092301186464</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4446442224812017</v>
+        <v>1.409031868360614</v>
       </c>
       <c r="L23">
-        <v>0.2211533409735722</v>
+        <v>0.2329878323772476</v>
       </c>
       <c r="M23">
-        <v>0.1659725176528255</v>
+        <v>0.3437310427850448</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.359922629446146</v>
+        <v>0.8389200419966159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5250395543093589</v>
+        <v>1.392623087980979</v>
       </c>
       <c r="C24">
-        <v>0.2099702082916153</v>
+        <v>0.1366697161683987</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1360190571566591</v>
+        <v>0.06136342240314008</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.5296895088141369</v>
+        <v>0.2115964913670823</v>
       </c>
       <c r="H24">
-        <v>0.6859971125952882</v>
+        <v>0.2301015798291957</v>
       </c>
       <c r="I24">
-        <v>0.7056553325041115</v>
+        <v>0.2408501394829869</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3828870682265517</v>
+        <v>1.217430384563727</v>
       </c>
       <c r="L24">
-        <v>0.2152915012253516</v>
+        <v>0.2053522822230036</v>
       </c>
       <c r="M24">
-        <v>0.1518430854101922</v>
+        <v>0.2947901962172921</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.400799336598197</v>
+        <v>0.8785449784309804</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4476712205255637</v>
+        <v>1.143605148357864</v>
       </c>
       <c r="C25">
-        <v>0.2097905987163031</v>
+        <v>0.134483755683938</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1371492634739511</v>
+        <v>0.05976058938022</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5416344634913415</v>
+        <v>0.222308984617932</v>
       </c>
       <c r="H25">
-        <v>0.6975355310398186</v>
+        <v>0.2452877265674474</v>
       </c>
       <c r="I25">
-        <v>0.7210720174101919</v>
+        <v>0.2634872716315755</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3158979842644101</v>
+        <v>1.010988959191479</v>
       </c>
       <c r="L25">
-        <v>0.2093328259504048</v>
+        <v>0.1763781635806083</v>
       </c>
       <c r="M25">
-        <v>0.1367029384906076</v>
+        <v>0.2423800705393795</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.449920386329026</v>
+        <v>0.93248473429108</v>
       </c>
     </row>
   </sheetData>
